--- a/Apppendix_A_Sprint_Planning.xlsx
+++ b/Apppendix_A_Sprint_Planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc2d6a19f994f39b/Documents/Concordia/5th semester/SOEN_341_Project/Group1-SOEN341_Project_F24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2800C1DE-2993-2240-AC40-BF17AFC4DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2800C1DE-2993-2240-AC40-BF17AFC4DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C51BA6-C5F7-C34A-B217-E643BA7A915A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>User story/Task title</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Priority (LOW, MED, HIGH)</t>
+  </si>
+  <si>
+    <t>Risk (LOW, MED, HIGH)</t>
   </si>
 </sst>
 </file>
@@ -86,6 +92,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,8 +383,8 @@
   </sheetPr>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -386,7 +393,7 @@
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
@@ -409,11 +416,11 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
